--- a/examples/ReaderTest.xlsx
+++ b/examples/ReaderTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\php\ws-stolem-dev\stolem\vendor\przeslijmi\xlsxpeasant\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F15D221-9774-4F82-8676-7D92A1836ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB096D69-8A9B-4500-BB01-58CCD2B8F8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1C13D4AA-D4E7-4D5D-8AE4-4CC3650298B6}"/>
   </bookViews>
@@ -21,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Column1</t>
   </si>
@@ -76,6 +70,9 @@
       </rPr>
       <t>and bolded</t>
     </r>
+  </si>
+  <si>
+    <t>Repeated text</t>
   </si>
 </sst>
 </file>
@@ -494,10 +491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAAFD3C2-FA56-4250-B6FC-FC3B2713A340}">
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,6 +522,56 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
